--- a/biology/Biochimie/Réplisome/Réplisome.xlsx
+++ b/biology/Biochimie/Réplisome/Réplisome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9plisome</t>
+          <t>Réplisome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réplisome est un complexe de plusieurs protéines qui travaillent de manière coordonnée à la réplication de l'ADN[1]. Il est constitué de plusieurs enzymes spécifiques qui  travaillent directement à la synthèse des brins ainsi que de facteurs protéiques qui organisent et accélèrent le processus. Il est localisé au niveau de la fourche de réplication de l'ADN, dans le noyau des cellules. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réplisome est un complexe de plusieurs protéines qui travaillent de manière coordonnée à la réplication de l'ADN. Il est constitué de plusieurs enzymes spécifiques qui  travaillent directement à la synthèse des brins ainsi que de facteurs protéiques qui organisent et accélèrent le processus. Il est localisé au niveau de la fourche de réplication de l'ADN, dans le noyau des cellules. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9plisome</t>
+          <t>Réplisome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le réplisome contient cinq types de protéines différents
 L'hélicase de la fourche de réplication. C'est l'enzyme chargée de séparer les deux brins de l'ADN à répliquer.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9plisome</t>
+          <t>Réplisome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Protéines associées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs autres protéines ou enzymes sont associées au réplisome, sans en faire partie intégrante. On peut citer les single-strand binding protein ou SSB, qui maintiennent l'ADN du brin indirect sous forme de simple brin jusqu'à l'arrivée de la primase et de l'ADN polymérase, les nucléases (ADN Pol I chez les procaryotes) qui enlèvent les amorces d'ARN des fragments d'Okazaki et l'ADN ligase qui relie ensuite, l'un à l'autre, deux fragments[2] successifs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs autres protéines ou enzymes sont associées au réplisome, sans en faire partie intégrante. On peut citer les single-strand binding protein ou SSB, qui maintiennent l'ADN du brin indirect sous forme de simple brin jusqu'à l'arrivée de la primase et de l'ADN polymérase, les nucléases (ADN Pol I chez les procaryotes) qui enlèvent les amorces d'ARN des fragments d'Okazaki et l'ADN ligase qui relie ensuite, l'un à l'autre, deux fragments successifs.
 </t>
         </is>
       </c>
